--- a/circuit/power calc.xlsx
+++ b/circuit/power calc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ZEDD-VALORANT-SWORD-thingy\circuit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D71DED9-1751-41B5-A4FC-BC22ACFB6678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6A870D-4711-4894-8E74-3BF6726FB577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>144leds/m @ 43.2watt/meter</t>
   </si>
@@ -115,13 +115,16 @@
   </si>
   <si>
     <t>Given Specs</t>
+  </si>
+  <si>
+    <t>hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,12 +139,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -470,7 +467,7 @@
   <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,6 +576,9 @@
         <f>F4/(C10+C7)</f>
         <v>2.4965955515206537</v>
       </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
